--- a/Documents/Week7/07_Team3PMScheduleManagementPlanGantt.xlsx
+++ b/Documents/Week7/07_Team3PMScheduleManagementPlanGantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisualStudioRepos\Documents\Week6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepo\Documents\Week7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C74A6E-3B48-48E0-9B47-5D0955FA5AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503AD19-81DD-4E63-ABC2-9C88C9ADA531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1570,15 +1570,9 @@
     <t>Week 7- Phase 3 Source</t>
   </si>
   <si>
-    <t>Phase 3 Source</t>
-  </si>
-  <si>
     <t>Week 8- Final Project Delivery</t>
   </si>
   <si>
-    <t>Final Project Delivery</t>
-  </si>
-  <si>
     <t>CMSC495-Team 3</t>
   </si>
   <si>
@@ -1612,7 +1606,13 @@
     <t>All</t>
   </si>
   <si>
-    <t>Phase 2 Source (DB ISUD Access)</t>
+    <t>Phase 3 Source (UI Finalization)</t>
+  </si>
+  <si>
+    <t>Phase 2 Source (DB Access)</t>
+  </si>
+  <si>
+    <t>Final Project Delivery (App working with DB ISUD Calls)</t>
   </si>
 </sst>
 </file>
@@ -2796,18 +2796,18 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3852,7 +3852,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3872,7 +3872,7 @@
   <sheetData>
     <row r="1" spans="1:143" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -3880,33 +3880,33 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="I1" s="70"/>
-      <c r="K1" s="148" t="s">
+      <c r="K1" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="146"/>
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="146"/>
     </row>
     <row r="2" spans="1:143" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="111"/>
       <c r="C2" s="111"/>
@@ -4047,11 +4047,11 @@
       <c r="B4" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="149">
+      <c r="C4" s="147">
         <v>44489</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="120"/>
       <c r="G4" s="119" t="s">
         <v>73</v>
@@ -4061,182 +4061,182 @@
       </c>
       <c r="I4" s="122"/>
       <c r="J4" s="123"/>
-      <c r="K4" s="146" t="str">
+      <c r="K4" s="148" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="146" t="str">
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="146"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="146"/>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="146" t="str">
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="146"/>
-      <c r="AA4" s="146"/>
-      <c r="AB4" s="146"/>
-      <c r="AC4" s="146"/>
-      <c r="AD4" s="146"/>
-      <c r="AE4" s="146"/>
-      <c r="AF4" s="146" t="str">
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="148"/>
+      <c r="AD4" s="148"/>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="148" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="146"/>
-      <c r="AH4" s="146"/>
-      <c r="AI4" s="146"/>
-      <c r="AJ4" s="146"/>
-      <c r="AK4" s="146"/>
-      <c r="AL4" s="146"/>
-      <c r="AM4" s="146" t="str">
+      <c r="AG4" s="148"/>
+      <c r="AH4" s="148"/>
+      <c r="AI4" s="148"/>
+      <c r="AJ4" s="148"/>
+      <c r="AK4" s="148"/>
+      <c r="AL4" s="148"/>
+      <c r="AM4" s="148" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="146"/>
-      <c r="AO4" s="146"/>
-      <c r="AP4" s="146"/>
-      <c r="AQ4" s="146"/>
-      <c r="AR4" s="146"/>
-      <c r="AS4" s="146"/>
-      <c r="AT4" s="146" t="str">
+      <c r="AN4" s="148"/>
+      <c r="AO4" s="148"/>
+      <c r="AP4" s="148"/>
+      <c r="AQ4" s="148"/>
+      <c r="AR4" s="148"/>
+      <c r="AS4" s="148"/>
+      <c r="AT4" s="148" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="146"/>
-      <c r="AV4" s="146"/>
-      <c r="AW4" s="146"/>
-      <c r="AX4" s="146"/>
-      <c r="AY4" s="146"/>
-      <c r="AZ4" s="146"/>
-      <c r="BA4" s="146" t="str">
+      <c r="AU4" s="148"/>
+      <c r="AV4" s="148"/>
+      <c r="AW4" s="148"/>
+      <c r="AX4" s="148"/>
+      <c r="AY4" s="148"/>
+      <c r="AZ4" s="148"/>
+      <c r="BA4" s="148" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="146"/>
-      <c r="BC4" s="146"/>
-      <c r="BD4" s="146"/>
-      <c r="BE4" s="146"/>
-      <c r="BF4" s="146"/>
-      <c r="BG4" s="146"/>
-      <c r="BH4" s="146" t="str">
+      <c r="BB4" s="148"/>
+      <c r="BC4" s="148"/>
+      <c r="BD4" s="148"/>
+      <c r="BE4" s="148"/>
+      <c r="BF4" s="148"/>
+      <c r="BG4" s="148"/>
+      <c r="BH4" s="148" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="146"/>
-      <c r="BJ4" s="146"/>
-      <c r="BK4" s="146"/>
-      <c r="BL4" s="146"/>
-      <c r="BM4" s="146"/>
-      <c r="BN4" s="146"/>
+      <c r="BI4" s="148"/>
+      <c r="BJ4" s="148"/>
+      <c r="BK4" s="148"/>
+      <c r="BL4" s="148"/>
+      <c r="BM4" s="148"/>
+      <c r="BN4" s="148"/>
     </row>
     <row r="5" spans="1:143" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="118"/>
       <c r="B5" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="149" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
+      <c r="C5" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
       <c r="F5" s="124"/>
       <c r="G5" s="124"/>
       <c r="H5" s="124"/>
       <c r="I5" s="124"/>
       <c r="J5" s="123"/>
-      <c r="K5" s="147">
+      <c r="K5" s="149">
         <f>K6</f>
         <v>44487</v>
       </c>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147">
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="149"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149">
         <f>R6</f>
         <v>44494</v>
       </c>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147">
+      <c r="S5" s="149"/>
+      <c r="T5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="149">
         <f>Y6</f>
         <v>44501</v>
       </c>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="147"/>
-      <c r="AF5" s="147">
+      <c r="Z5" s="149"/>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="149"/>
+      <c r="AD5" s="149"/>
+      <c r="AE5" s="149"/>
+      <c r="AF5" s="149">
         <f>AF6</f>
         <v>44508</v>
       </c>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="147"/>
-      <c r="AK5" s="147"/>
-      <c r="AL5" s="147"/>
-      <c r="AM5" s="147">
+      <c r="AG5" s="149"/>
+      <c r="AH5" s="149"/>
+      <c r="AI5" s="149"/>
+      <c r="AJ5" s="149"/>
+      <c r="AK5" s="149"/>
+      <c r="AL5" s="149"/>
+      <c r="AM5" s="149">
         <f>AM6</f>
         <v>44515</v>
       </c>
-      <c r="AN5" s="147"/>
-      <c r="AO5" s="147"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="147"/>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="147"/>
-      <c r="AT5" s="147">
+      <c r="AN5" s="149"/>
+      <c r="AO5" s="149"/>
+      <c r="AP5" s="149"/>
+      <c r="AQ5" s="149"/>
+      <c r="AR5" s="149"/>
+      <c r="AS5" s="149"/>
+      <c r="AT5" s="149">
         <f>AT6</f>
         <v>44522</v>
       </c>
-      <c r="AU5" s="147"/>
-      <c r="AV5" s="147"/>
-      <c r="AW5" s="147"/>
-      <c r="AX5" s="147"/>
-      <c r="AY5" s="147"/>
-      <c r="AZ5" s="147"/>
-      <c r="BA5" s="147">
+      <c r="AU5" s="149"/>
+      <c r="AV5" s="149"/>
+      <c r="AW5" s="149"/>
+      <c r="AX5" s="149"/>
+      <c r="AY5" s="149"/>
+      <c r="AZ5" s="149"/>
+      <c r="BA5" s="149">
         <f>BA6</f>
         <v>44529</v>
       </c>
-      <c r="BB5" s="147"/>
-      <c r="BC5" s="147"/>
-      <c r="BD5" s="147"/>
-      <c r="BE5" s="147"/>
-      <c r="BF5" s="147"/>
-      <c r="BG5" s="147"/>
-      <c r="BH5" s="147">
+      <c r="BB5" s="149"/>
+      <c r="BC5" s="149"/>
+      <c r="BD5" s="149"/>
+      <c r="BE5" s="149"/>
+      <c r="BF5" s="149"/>
+      <c r="BG5" s="149"/>
+      <c r="BH5" s="149">
         <f>BH6</f>
         <v>44536</v>
       </c>
-      <c r="BI5" s="147"/>
-      <c r="BJ5" s="147"/>
-      <c r="BK5" s="147"/>
-      <c r="BL5" s="147"/>
-      <c r="BM5" s="147"/>
-      <c r="BN5" s="147"/>
+      <c r="BI5" s="149"/>
+      <c r="BJ5" s="149"/>
+      <c r="BK5" s="149"/>
+      <c r="BL5" s="149"/>
+      <c r="BM5" s="149"/>
+      <c r="BN5" s="149"/>
     </row>
     <row r="6" spans="1:143" x14ac:dyDescent="0.2">
       <c r="A6" s="125"/>
@@ -4970,7 +4970,7 @@
         <v>136</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="101"/>
       <c r="E9" s="102">
@@ -5133,7 +5133,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10" s="101"/>
       <c r="E10" s="102">
@@ -5452,7 +5452,7 @@
         <v>138</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D12" s="101"/>
       <c r="E12" s="102">
@@ -5615,7 +5615,7 @@
         <v>140</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D13" s="101"/>
       <c r="E13" s="102">
@@ -5778,7 +5778,7 @@
         <v>141</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" s="101"/>
       <c r="E14" s="102">
@@ -6097,7 +6097,7 @@
         <v>144</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D16" s="101"/>
       <c r="E16" s="102">
@@ -6260,7 +6260,7 @@
         <v>143</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="101"/>
       <c r="E17" s="102">
@@ -6740,7 +6740,7 @@
         <v>145</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D20" s="101"/>
       <c r="E20" s="102">
@@ -6900,10 +6900,10 @@
         <v>4.2</v>
       </c>
       <c r="B21" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>164</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>166</v>
       </c>
       <c r="D21" s="101"/>
       <c r="E21" s="102">
@@ -7063,10 +7063,10 @@
         <v>4.3</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D22" s="101"/>
       <c r="E22" s="102">
@@ -7385,7 +7385,7 @@
         <v>149</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D24" s="101"/>
       <c r="E24" s="102">
@@ -7547,10 +7547,10 @@
         <v>6.1</v>
       </c>
       <c r="B26" s="109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="102">
@@ -7564,7 +7564,7 @@
         <v>7</v>
       </c>
       <c r="H26" s="105">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I26" s="106">
         <v>7</v>
@@ -7712,10 +7712,10 @@
         <v>7.1</v>
       </c>
       <c r="B28" s="109" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="101"/>
       <c r="E28" s="102">
@@ -7729,7 +7729,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="106">
         <v>7</v>
@@ -7798,7 +7798,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="136"/>
       <c r="D29" s="137"/>
@@ -7871,16 +7871,16 @@
       <c r="BM29" s="144"/>
       <c r="BN29" s="144"/>
     </row>
-    <row r="30" spans="1:143" s="47" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:143" s="47" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A30" s="108" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>8.1</v>
       </c>
       <c r="B30" s="109" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="102">
@@ -8565,15 +8565,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -8584,6 +8575,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H32:H37 H8:H22">
